--- a/Hardware/PCBs/RP5-Console_BOM.xlsx
+++ b/Hardware/PCBs/RP5-Console_BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thurs\Documents\Data Sheets\RPCM5_HH\RP5-Console\Hardware\PCBs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97F80FC3-A0C7-4A99-9CD5-498ED9592184}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11983167-CFFF-4DF9-8F9F-9A4303572B36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7801A215-14F1-4FA9-B420-CABBEE9294D7}"/>
   </bookViews>
@@ -1747,7 +1747,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1804,6 +1804,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2144,8 +2150,8 @@
   </sheetPr>
   <dimension ref="A1:I238"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A213" workbookViewId="0">
-      <selection activeCell="C229" sqref="C229"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2805,7 +2811,7 @@
       <c r="B34" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="C34" s="30" t="s">
         <v>396</v>
       </c>
       <c r="D34" s="4">
@@ -6411,7 +6417,7 @@
       <c r="B212" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="C212" s="4" t="s">
+      <c r="C212" s="31" t="s">
         <v>396</v>
       </c>
       <c r="D212" s="15">
@@ -6430,7 +6436,7 @@
       <c r="B213" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="C213" s="4" t="s">
+      <c r="C213" s="31" t="s">
         <v>396</v>
       </c>
       <c r="D213" s="15">
@@ -6862,9 +6868,12 @@
     <hyperlink ref="C231" r:id="rId4" xr:uid="{718BBC1B-FBE7-48AD-A64C-AD56FA0057F7}"/>
     <hyperlink ref="C232" r:id="rId5" xr:uid="{3576AE94-2DF4-4C89-BF2E-282FCA02E077}"/>
     <hyperlink ref="C234" r:id="rId6" display="https://www.amazon.com/uxcell-M1-4-0-3-Stainless-Furniture-Connection/dp/B0DRGWJ8V6/ref=sr_1_7_sspa?crid=2EC50PCQ08LXS&amp;dib=eyJ2IjoiMSJ9.x92tQKExzXb5KzRhAcJk3gnIsUhJJWeUXo-P_p24rlaaoQ-Dtd_JWAxTr3Ai43AtHbF3dC3PibqmAS7XkYDOhekXCuC_U4vcTq1vgvRyy-URs0YRJjH_Q7Fo_ZtjutoDWyq2QjOjJ9TKO1LWcZkYoCPb_Qcq6gWUumGuo1iR6YPu7DEKeCwNWDboFYIjv8eGzjThpcq-Fel5eSH5GXIcCs5JBcJ1aE0CQ5havSowab-FutZwd9Y8if9EdrRnRw1GH3IlZwAitKHvhfoSK7x7MWOJ9F6HknadwuIWrxWua4s.kfIcMsMNjMx4-HIj4rwUag3ShvkjuH8ohV-lkkwqitQ&amp;dib_tag=se&amp;keywords=m1.4%2Bscrew&amp;qid=1741466507&amp;s=hi&amp;sprefix=m1.4%2Bscrew%2Ctools%2C100&amp;sr=1-7-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9tdGY&amp;th=1" xr:uid="{393357BF-BF9E-428E-9BE3-032C4337262C}"/>
+    <hyperlink ref="C34" r:id="rId7" xr:uid="{9DB62037-59DC-489F-9EBD-2DDBAA703A78}"/>
+    <hyperlink ref="C212" r:id="rId8" xr:uid="{22448393-92D2-4DA0-994E-3D7ABB75130A}"/>
+    <hyperlink ref="C213" r:id="rId9" xr:uid="{1898F097-4085-490F-BAE5-B3DF82A28639}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.30555555555555558" right="0.30555555555555558" top="0.30555555555555558" bottom="0.30555555555555558" header="0" footer="0"/>
-  <pageSetup scale="10" orientation="landscape" blackAndWhite="1" r:id="rId7"/>
+  <pageSetup scale="10" orientation="landscape" blackAndWhite="1" r:id="rId10"/>
 </worksheet>
 </file>
--- a/Hardware/PCBs/RP5-Console_BOM.xlsx
+++ b/Hardware/PCBs/RP5-Console_BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thurs\Documents\Data Sheets\RPCM5_HH\RP5-Console\Hardware\PCBs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11983167-CFFF-4DF9-8F9F-9A4303572B36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6553D5CE-1C35-4DD7-833D-A6853C27D9CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7801A215-14F1-4FA9-B420-CABBEE9294D7}"/>
   </bookViews>
@@ -2150,8 +2150,8 @@
   </sheetPr>
   <dimension ref="A1:I238"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" topLeftCell="A195" workbookViewId="0">
+      <selection activeCell="C213" sqref="C213"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6453,7 +6453,7 @@
         <v>473</v>
       </c>
       <c r="B214" s="15">
-        <f>SUM(B137:B168:B203) + 6</f>
+        <f>SUM(B137+B168+B203+D205+D206+D208+D209+D212+D213)</f>
         <v>430</v>
       </c>
       <c r="C214" s="4"/>

--- a/Hardware/PCBs/RP5-Console_BOM.xlsx
+++ b/Hardware/PCBs/RP5-Console_BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thurs\Documents\Data Sheets\RPCM5_HH\RP5-Console\Hardware\PCBs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6553D5CE-1C35-4DD7-833D-A6853C27D9CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0493C11-48B1-49D0-9DCA-EB2D6C4B0132}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7801A215-14F1-4FA9-B420-CABBEE9294D7}"/>
   </bookViews>
@@ -2150,8 +2150,8 @@
   </sheetPr>
   <dimension ref="A1:I238"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A195" workbookViewId="0">
-      <selection activeCell="C213" sqref="C213"/>
+    <sheetView tabSelected="1" topLeftCell="A189" workbookViewId="0">
+      <selection activeCell="H213" sqref="H213"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6452,7 +6452,7 @@
       <c r="A214" s="18" t="s">
         <v>473</v>
       </c>
-      <c r="B214" s="15">
+      <c r="B214" s="25">
         <f>SUM(B137+B168+B203+D205+D206+D208+D209+D212+D213)</f>
         <v>430</v>
       </c>

--- a/Hardware/PCBs/RP5-Console_BOM.xlsx
+++ b/Hardware/PCBs/RP5-Console_BOM.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thurs\Documents\Data Sheets\RPCM5_HH\RP5-Console\Hardware\PCBs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0493C11-48B1-49D0-9DCA-EB2D6C4B0132}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{790C553F-8261-4B1C-A0AF-E38620D7446B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7801A215-14F1-4FA9-B420-CABBEE9294D7}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1051" uniqueCount="526">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1067" uniqueCount="538">
   <si>
     <t>Comment</t>
   </si>
@@ -1626,6 +1626,42 @@
   </si>
   <si>
     <t>Samsung 3.85V 5.8Ah</t>
+  </si>
+  <si>
+    <t>RMF-092-T</t>
+  </si>
+  <si>
+    <t>Fan Vent Screen</t>
+  </si>
+  <si>
+    <t>RPC3203-ND</t>
+  </si>
+  <si>
+    <t>Switch Lite Button Set</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/dp/B0B2VFTHGX?ref=ppx_yo2ov_dt_b_fed_asin_title&amp;th=1</t>
+  </si>
+  <si>
+    <t>Joycon Joysticks</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/dp/B07MRJ12HX?ref=ppx_yo2ov_dt_b_fed_asin_title</t>
+  </si>
+  <si>
+    <t>Rubber Conductive Pads</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/dp/B09LM9MVLM?ref=ppx_yo2ov_dt_b_fed_asin_title</t>
+  </si>
+  <si>
+    <t>Cut to size and Paint black if desired</t>
+  </si>
+  <si>
+    <t>Cut notches according to Front Cover model</t>
+  </si>
+  <si>
+    <t>Lightly glue in place on boards</t>
   </si>
 </sst>
 </file>
@@ -1708,7 +1744,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -1742,12 +1778,25 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1810,6 +1859,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2150,9 +2203,7 @@
   </sheetPr>
   <dimension ref="A1:I238"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A189" workbookViewId="0">
-      <selection activeCell="H213" sqref="H213"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2160,7 +2211,7 @@
     <col min="2" max="2" width="13.5703125" customWidth="1"/>
     <col min="3" max="3" width="107.85546875" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
-    <col min="5" max="5" width="37.140625" customWidth="1"/>
+    <col min="5" max="5" width="40.140625" customWidth="1"/>
     <col min="6" max="6" width="25.140625" customWidth="1"/>
     <col min="7" max="7" width="16.5703125" customWidth="1"/>
   </cols>
@@ -6576,7 +6627,9 @@
       </c>
       <c r="B221" s="13"/>
       <c r="C221" s="13"/>
-      <c r="D221" s="5"/>
+      <c r="D221" s="5">
+        <v>1</v>
+      </c>
       <c r="E221">
         <v>2743</v>
       </c>
@@ -6593,7 +6646,9 @@
       </c>
       <c r="B222" s="13"/>
       <c r="C222" s="13"/>
-      <c r="D222" s="5"/>
+      <c r="D222" s="5">
+        <v>1</v>
+      </c>
       <c r="E222" s="5" t="s">
         <v>513</v>
       </c>
@@ -6669,7 +6724,9 @@
       <c r="C226" s="5" t="s">
         <v>510</v>
       </c>
-      <c r="D226" s="5"/>
+      <c r="D226" s="5">
+        <v>1</v>
+      </c>
       <c r="E226" s="27" t="s">
         <v>499</v>
       </c>
@@ -6730,7 +6787,9 @@
       <c r="C229" s="5" t="s">
         <v>508</v>
       </c>
-      <c r="D229" s="5"/>
+      <c r="D229" s="5">
+        <v>1</v>
+      </c>
       <c r="E229" s="26" t="s">
         <v>509</v>
       </c>
@@ -6742,66 +6801,76 @@
       </c>
     </row>
     <row r="230" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A230" s="5" t="s">
+      <c r="A230" s="33" t="s">
         <v>511</v>
       </c>
-      <c r="B230" s="13"/>
+      <c r="B230" s="34"/>
       <c r="C230" t="s">
         <v>515</v>
       </c>
-      <c r="D230" s="5"/>
-      <c r="E230" s="29"/>
-      <c r="F230" s="13"/>
-      <c r="G230" s="5" t="s">
+      <c r="D230" s="33">
+        <v>5</v>
+      </c>
+      <c r="E230" s="35"/>
+      <c r="F230" s="34"/>
+      <c r="G230" s="33" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="231" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A231" s="5" t="s">
-        <v>517</v>
+      <c r="A231" s="15" t="s">
+        <v>527</v>
       </c>
       <c r="B231" s="13"/>
-      <c r="C231" s="26" t="s">
-        <v>520</v>
-      </c>
-      <c r="D231" s="5">
-        <v>4</v>
-      </c>
-      <c r="E231" s="13"/>
-      <c r="F231" s="13"/>
+      <c r="C231" s="15" t="s">
+        <v>535</v>
+      </c>
+      <c r="D231" s="15">
+        <v>1</v>
+      </c>
+      <c r="E231" s="15" t="s">
+        <v>526</v>
+      </c>
+      <c r="F231" s="15" t="s">
+        <v>528</v>
+      </c>
       <c r="G231" s="15" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="232" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="5" t="s">
-        <v>518</v>
+        <v>529</v>
       </c>
       <c r="B232" s="13"/>
       <c r="C232" s="26" t="s">
-        <v>521</v>
+        <v>530</v>
       </c>
       <c r="D232" s="5">
-        <v>19</v>
-      </c>
-      <c r="E232" s="13"/>
+        <v>5</v>
+      </c>
+      <c r="E232" s="32" t="s">
+        <v>536</v>
+      </c>
       <c r="F232" s="13"/>
       <c r="G232" s="15" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="233" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="5" t="s">
-        <v>519</v>
+        <v>533</v>
       </c>
       <c r="B233" s="13"/>
       <c r="C233" s="26" t="s">
-        <v>516</v>
+        <v>534</v>
       </c>
       <c r="D233" s="5">
-        <v>4</v>
-      </c>
-      <c r="E233" s="29"/>
+        <v>2</v>
+      </c>
+      <c r="E233" s="15" t="s">
+        <v>537</v>
+      </c>
       <c r="F233" s="13"/>
       <c r="G233" s="15" t="s">
         <v>506</v>
@@ -6809,68 +6878,100 @@
     </row>
     <row r="234" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="5" t="s">
-        <v>523</v>
+        <v>531</v>
       </c>
       <c r="B234" s="13"/>
       <c r="C234" s="26" t="s">
-        <v>522</v>
+        <v>532</v>
       </c>
       <c r="D234" s="5">
-        <v>4</v>
-      </c>
-      <c r="E234" s="13"/>
+        <v>1</v>
+      </c>
+      <c r="E234" s="29"/>
       <c r="F234" s="13"/>
       <c r="G234" s="15" t="s">
         <v>506</v>
       </c>
     </row>
     <row r="235" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A235" s="5"/>
-      <c r="B235" s="5"/>
-      <c r="C235" s="5"/>
-      <c r="D235" s="5"/>
-      <c r="E235" s="5"/>
-      <c r="F235" s="5"/>
-      <c r="G235" s="5"/>
+      <c r="A235" s="5" t="s">
+        <v>517</v>
+      </c>
+      <c r="B235" s="13"/>
+      <c r="C235" s="26" t="s">
+        <v>520</v>
+      </c>
+      <c r="D235" s="5">
+        <v>4</v>
+      </c>
+      <c r="E235" s="8"/>
+      <c r="F235" s="13"/>
+      <c r="G235" s="15" t="s">
+        <v>506</v>
+      </c>
     </row>
     <row r="236" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A236" s="5"/>
-      <c r="B236" s="5"/>
-      <c r="C236" s="5"/>
-      <c r="D236" s="5"/>
-      <c r="E236" s="5"/>
-      <c r="F236" s="5"/>
-      <c r="G236" s="5"/>
+      <c r="A236" s="5" t="s">
+        <v>518</v>
+      </c>
+      <c r="B236" s="13"/>
+      <c r="C236" s="26" t="s">
+        <v>521</v>
+      </c>
+      <c r="D236" s="5">
+        <v>19</v>
+      </c>
+      <c r="E236" s="13"/>
+      <c r="F236" s="13"/>
+      <c r="G236" s="15" t="s">
+        <v>506</v>
+      </c>
     </row>
     <row r="237" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A237" s="5"/>
-      <c r="B237" s="5"/>
-      <c r="C237" s="5"/>
-      <c r="D237" s="5"/>
-      <c r="E237" s="5"/>
-      <c r="F237" s="5"/>
-      <c r="G237" s="5"/>
+      <c r="A237" s="5" t="s">
+        <v>519</v>
+      </c>
+      <c r="B237" s="13"/>
+      <c r="C237" s="26" t="s">
+        <v>516</v>
+      </c>
+      <c r="D237" s="5">
+        <v>4</v>
+      </c>
+      <c r="E237" s="29"/>
+      <c r="F237" s="13"/>
+      <c r="G237" s="15" t="s">
+        <v>506</v>
+      </c>
     </row>
     <row r="238" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A238" s="5"/>
-      <c r="B238" s="5"/>
-      <c r="C238" s="5"/>
-      <c r="D238" s="5"/>
-      <c r="E238" s="5"/>
-      <c r="F238" s="5"/>
-      <c r="G238" s="5"/>
+      <c r="A238" s="5" t="s">
+        <v>523</v>
+      </c>
+      <c r="B238" s="13"/>
+      <c r="C238" s="26" t="s">
+        <v>522</v>
+      </c>
+      <c r="D238" s="5">
+        <v>4</v>
+      </c>
+      <c r="E238" s="13"/>
+      <c r="F238" s="13"/>
+      <c r="G238" s="15" t="s">
+        <v>506</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E228" r:id="rId1" xr:uid="{4011500E-073F-4E71-83F4-E9B95BC247D3}"/>
     <hyperlink ref="E229" r:id="rId2" xr:uid="{601E6560-C3C9-48B8-A3E9-A9CF5163D475}"/>
-    <hyperlink ref="C233" r:id="rId3" xr:uid="{F825D856-5831-458C-BB54-A8700E6F137B}"/>
-    <hyperlink ref="C231" r:id="rId4" xr:uid="{718BBC1B-FBE7-48AD-A64C-AD56FA0057F7}"/>
-    <hyperlink ref="C232" r:id="rId5" xr:uid="{3576AE94-2DF4-4C89-BF2E-282FCA02E077}"/>
-    <hyperlink ref="C234" r:id="rId6" display="https://www.amazon.com/uxcell-M1-4-0-3-Stainless-Furniture-Connection/dp/B0DRGWJ8V6/ref=sr_1_7_sspa?crid=2EC50PCQ08LXS&amp;dib=eyJ2IjoiMSJ9.x92tQKExzXb5KzRhAcJk3gnIsUhJJWeUXo-P_p24rlaaoQ-Dtd_JWAxTr3Ai43AtHbF3dC3PibqmAS7XkYDOhekXCuC_U4vcTq1vgvRyy-URs0YRJjH_Q7Fo_ZtjutoDWyq2QjOjJ9TKO1LWcZkYoCPb_Qcq6gWUumGuo1iR6YPu7DEKeCwNWDboFYIjv8eGzjThpcq-Fel5eSH5GXIcCs5JBcJ1aE0CQ5havSowab-FutZwd9Y8if9EdrRnRw1GH3IlZwAitKHvhfoSK7x7MWOJ9F6HknadwuIWrxWua4s.kfIcMsMNjMx4-HIj4rwUag3ShvkjuH8ohV-lkkwqitQ&amp;dib_tag=se&amp;keywords=m1.4%2Bscrew&amp;qid=1741466507&amp;s=hi&amp;sprefix=m1.4%2Bscrew%2Ctools%2C100&amp;sr=1-7-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9tdGY&amp;th=1" xr:uid="{393357BF-BF9E-428E-9BE3-032C4337262C}"/>
-    <hyperlink ref="C34" r:id="rId7" xr:uid="{9DB62037-59DC-489F-9EBD-2DDBAA703A78}"/>
-    <hyperlink ref="C212" r:id="rId8" xr:uid="{22448393-92D2-4DA0-994E-3D7ABB75130A}"/>
-    <hyperlink ref="C213" r:id="rId9" xr:uid="{1898F097-4085-490F-BAE5-B3DF82A28639}"/>
+    <hyperlink ref="C34" r:id="rId3" xr:uid="{9DB62037-59DC-489F-9EBD-2DDBAA703A78}"/>
+    <hyperlink ref="C212" r:id="rId4" xr:uid="{22448393-92D2-4DA0-994E-3D7ABB75130A}"/>
+    <hyperlink ref="C213" r:id="rId5" xr:uid="{1898F097-4085-490F-BAE5-B3DF82A28639}"/>
+    <hyperlink ref="C237" r:id="rId6" xr:uid="{67EC6EBE-50CA-4E08-94D6-9744048FF3EA}"/>
+    <hyperlink ref="C235" r:id="rId7" xr:uid="{44384A07-D531-4A0E-87CE-C39044CDD2D3}"/>
+    <hyperlink ref="C236" r:id="rId8" xr:uid="{C28EF147-1A77-4BC1-A9D2-D677B84E3956}"/>
+    <hyperlink ref="C238" r:id="rId9" display="https://www.amazon.com/uxcell-M1-4-0-3-Stainless-Furniture-Connection/dp/B0DRGWJ8V6/ref=sr_1_7_sspa?crid=2EC50PCQ08LXS&amp;dib=eyJ2IjoiMSJ9.x92tQKExzXb5KzRhAcJk3gnIsUhJJWeUXo-P_p24rlaaoQ-Dtd_JWAxTr3Ai43AtHbF3dC3PibqmAS7XkYDOhekXCuC_U4vcTq1vgvRyy-URs0YRJjH_Q7Fo_ZtjutoDWyq2QjOjJ9TKO1LWcZkYoCPb_Qcq6gWUumGuo1iR6YPu7DEKeCwNWDboFYIjv8eGzjThpcq-Fel5eSH5GXIcCs5JBcJ1aE0CQ5havSowab-FutZwd9Y8if9EdrRnRw1GH3IlZwAitKHvhfoSK7x7MWOJ9F6HknadwuIWrxWua4s.kfIcMsMNjMx4-HIj4rwUag3ShvkjuH8ohV-lkkwqitQ&amp;dib_tag=se&amp;keywords=m1.4%2Bscrew&amp;qid=1741466507&amp;s=hi&amp;sprefix=m1.4%2Bscrew%2Ctools%2C100&amp;sr=1-7-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9tdGY&amp;th=1" xr:uid="{0992E3F4-3DDB-4B05-8430-F99BFC46959B}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.30555555555555558" right="0.30555555555555558" top="0.30555555555555558" bottom="0.30555555555555558" header="0" footer="0"/>
